--- a/excels/lua_abilities.xlsx
+++ b/excels/lua_abilities.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\dota-ts-template\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\dotatest\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84CFFE6-BB14-4023-B0D9-DBFBC36E0ED7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8EF24B-4230-4582-B71D-7EA7A0D36597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="参数指引" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="202">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,10 +78,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>其他键需要自己加了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MaxLevel</t>
   </si>
   <si>
@@ -146,10 +143,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1 2 3 4 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1 1 1 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -195,6 +188,669 @@
   </si>
   <si>
     <t>ability_lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbilityBehavior技能行为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_TYPE_BASIC技能类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Flags</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.5"/>
+        <color rgb="FF1C1E21"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>标志允许针对默认情况下被忽略的单位（例如，魔法免疫敌人）或忽略否则可作为目标的特定类型的单位（例如远古或魔法免疫盟友。）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_NO_TARGET</t>
+  </si>
+  <si>
+    <t>不需要施放目标。一旦按下按钮，技能就会触发。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_TYPE_BASIC</t>
+  </si>
+  <si>
+    <t>普通技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_UNIT_TARGET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要一个目标才能施放。需要AbilityUnitTargetTeam和AbilityUnitTargetType，请参阅定位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_TYPE_ULTIMATE</t>
+  </si>
+  <si>
+    <t>大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA_UNIT_TARGET_FLAG_NONE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	省略的默认值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_POINT</t>
+  </si>
+  <si>
+    <t>可以投射到鼠标光标所在的任何位置。
+如果一个单位被点击，它只会在该单位站立的地方施放。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA_UNIT_TARGET_FLAG_DEAD</t>
+  </si>
+  <si>
+    <t>死单元，否则会被忽略。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_PASSIVE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	无法施放。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources/flash3/images/spellicons</t>
+  </si>
+  <si>
+    <t>DOTA_UNIT_TARGET_FLAG_MELEE_ONLY</t>
+  </si>
+  <si>
+    <t>具有攻击能力的单位 DOTA_UNIT_CAP_MELEE_ATTACK。</t>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_CHANNELLED</t>
+  </si>
+  <si>
+    <t>通灵能力。
+如果用户移动或被沉默/昏迷，该能力将被打断。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您的游戏插件文件夹中，直接引用图像名称，无需路径或扩展名</t>
+  </si>
+  <si>
+    <t>DOTA_UNIT_TARGET_FLAG_RANGED_ONLY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	具有攻击能力的单位 DOTA_UNIT_CAP_RANGED_ATTACK。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_TOGGLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	可以打开/关闭。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>格式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：128x128 PNG</t>
+    </r>
+  </si>
+  <si>
+    <t>DOTA_UNIT_TARGET_FLAG_MANA_ONLY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	有法力的单位，不在"StatusMana" "0"npc_units 文件中。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_AURA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	能力是一种光环。
+除了标记这种能力之外，并没有真正使用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbilityUnitTargetTeam 目标队伍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA_UNIT_TARGET_FLAG_CHECK_DISABLE_HELP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	启用禁用帮助的单位。
+不确定如何让 DataDriven 能力使用它？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_AUTOCAST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	可以自动施放。
+通常在任何非攻击能力的情况下本身都不起作用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA_UNIT_TARGET_TEAM_BOTH</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>DOTA_UNIT_TARGET_FLAG_NO_INVIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	忽略隐形单位（使用 MODIFIER_STATE_INVISIBLE。）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_HIDDEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	无法投射，也不会出现在 HUD 上。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA_UNIT_TARGET_TEAM_ENEMY</t>
+  </si>
+  <si>
+    <t>敌人</t>
+  </si>
+  <si>
+    <t>DOTA_UNIT_TARGET_FLAG_MAGIC_IMMUNE_ENEMIES</t>
+  </si>
+  <si>
+    <t>用MODIFIER_STATE_MAGIC_IMMUNE.瞄准敌方单位。
+示例：诱捕、剔除之刃、原始咆哮……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_AOE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	可以绘制一个半径，使该能力生效。
+类似于 POINT，但具有效果显示区域。
+使用AOERadius.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA_UNIT_TARGET_TEAM_FRIENDLY</t>
+  </si>
+  <si>
+    <t>盟军</t>
+  </si>
+  <si>
+    <t>DOTA_UNIT_TARGET_FLAG_NOT_MAGIC_IMMUNE_ALLIES</t>
+  </si>
+  <si>
+    <t>忽略带有MODIFIER_STATE_MAGIC_IMMUNE.
+示例：贝恩的噩梦。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_NOT_LEARNABLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	无法通过单击 HUD 来学习。
+示例：祈求者的能力。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA_UNIT_TARGET_TEAM_NONE</t>
+  </si>
+  <si>
+    <t>省略的默认值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA_UNIT_TARGET_FLAG_NOT_ATTACK_IMMUNE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	忽略带有 的单位MODIFIER_STATE_ATTACK_IMMUNE。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_ITEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	能力与物品相关联。没有必要使用它，游戏会在内部将此行为分配给任何"item_datadriven".</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA_UNIT_TARGET_TEAM_CUSTOM</t>
+  </si>
+  <si>
+    <t>(?)</t>
+  </si>
+  <si>
+    <t>DOTA_UNIT_TARGET_FLAG_FOW_VISIBLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	当单位进入战争迷雾时中断。
+例如：法力吸取、生命吸取。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_DIRECTIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	有英雄的指示。
+例如：米拉娜之箭或帕吉之钩。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbilityUnitTargetType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA_UNIT_TARGET_FLAG_INVULNERABLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	单位与MODIFIER_STATE_INVULNERABLE.
+示例：暗杀、召回、巨石粉碎…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_IMMEDIATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	可以立即使用，无需进入操作队列。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA_UNIT_TARGET_ALL</t>
+  </si>
+  <si>
+    <t>一切，包括隐藏实体。</t>
+  </si>
+  <si>
+    <t>DOTA_UNIT_TARGET_FLAG_NOT_ANCIENTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	忽略已"IsAncient" "1"定义的单位。
+例子：迈达斯之手。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_NOASSIST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	技能没有十字线辅助。(?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA_UNIT_TARGET_FLAG_NOT_CREEP_HERO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	忽略已"ConsideredHero" "1"定义的单位。
+示例：星体囚禁、干扰、破碎。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_ATTACK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	是一次攻击，不能击中攻击免疫目标。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA_UNIT_TARGET_BASIC</t>
+  </si>
+  <si>
+    <t>基本单位，包括召唤。</t>
+  </si>
+  <si>
+    <t>DOTA_UNIT_TARGET_FLAG_NOT_DOMINATED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	忽略带有 的单位MODIFIER_STATE_DOMINATED。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_ROOT_DISABLES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	root后无法使用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA_UNIT_TARGET_MECHANICAL</t>
+  </si>
+  <si>
+    <t>DOTA_UNIT_TARGET_FLAG_NOT_ILLUSIONS</t>
+  </si>
+  <si>
+    <t>忽略 untis MODIFIER_PROPERTY_IS_ILLUSION。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_UNRESTRICTED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	当命令受到限制时，能力是允许的。
+示例：噬魂鬼的消耗。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA_UNIT_TARGET_BUILDING</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1C1E21"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>建筑</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA_UNIT_TARGET_FLAG_NOT_NIGHTMARED</t>
+  </si>
+  <si>
+    <t>忽略带有 的单位MODIFIER_STATE_NIGHTMARED。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_DONT_ALERT_TARGET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	对敌人施放目标时不会提醒他们。
+示例：裂魂人的冲锋。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA_UNIT_TARGET_TREE</t>
+  </si>
+  <si>
+    <t>树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA_UNIT_TARGET_FLAG_NOT_SUMMONED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	忽略通过SpawnUnit 操作创建的单位。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_DONT_RESUME_MOVEMENT</t>
+  </si>
+  <si>
+    <t>完成后不应恢复运动。
+仅适用于无目标、非直接能力。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA_UNIT_TARGET_CREEP</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">	npc_dota_creature, npc_dota_creep
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1C1E21"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>与</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1C1E21"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> BASIC </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1C1E21"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>相同，但可能不包括一些召唤物之类的东西。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1C1E21"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1C1E21"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>例子：死亡契约，吞噬。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA_UNIT_TARGET_FLAG_OUT_OF_WORLD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	单位与MODIFIER_STATE_OUT_OF_GAME.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_DONT_RESUME_ATTACK</t>
+  </si>
+  <si>
+    <t>技能完成后不应恢复对前一个目标的命令攻击。
+仅适用于无目标、非直接能力和单位目标能力。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA_UNIT_TARGET_COURIER</t>
+  </si>
+  <si>
+    <t>npc_dota_courier, npc_dota_flying_courier
+DOTA_NPC_UNIT_RELATIONSHIP_TYPE_COURIER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA_UNIT_TARGET_FLAG_PLAYER_CONTROLLED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	可由玩家控制的单位，可通过Lua的 访问IsControllableByAnyPlayer()。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_NORMAL_WHEN_STOLEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	技能被盗时仍使用其正常施法点。
+示例：米波的噗噗，法里奥的传送。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA_UNIT_TARGET_NONE</t>
+  </si>
+  <si>
+    <t>没有！</t>
+  </si>
+  <si>
+    <t>DOTA_UNIT_TARGET_FLAG_PREFER_ENEMIES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	当两者都可以选择时，优先考虑单位而不是树木。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_IGNORE_BACKSWING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	能力忽略后摆伪队列。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA_UNIT_TARGET_OTHER</t>
+  </si>
+  <si>
+    <t>以前类型中未包含的所有内容。</t>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_IGNORE_PSEUDO_QUEUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	可以在昏迷、施法或强制攻击时执行。仅适用于切换的能力。
+示例：Morphling 的属性转换。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA_UNIT_TARGET_CUSTOM</t>
+  </si>
+  <si>
+    <t>没暴露？示例：复制、破甲、恶魔转化、系绳、感染……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1C1E21"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>魔免标志</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPELL_IMMUNITY_ENEMIES_NO</t>
+  </si>
+  <si>
+    <t>SPELL_IMMUNITY_ALLIES_YES</t>
+  </si>
+  <si>
+    <t>AbilityCastRange</t>
+  </si>
+  <si>
+    <t>范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbilityUnitDamageType</t>
+  </si>
+  <si>
+    <t>ability/test_ability.lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAMAGE_TYPE_MAGICAL</t>
+  </si>
+  <si>
+    <t>AbilityDamageType</t>
+  </si>
+  <si>
+    <t>技能伤害类型</t>
+  </si>
+  <si>
+    <t>DAMAGE_TYPE_COMPOSITE</t>
+  </si>
+  <si>
+    <t>DAMAGE_TYPE_HP_REMOVAL</t>
+  </si>
+  <si>
+    <t>DAMAGE_TYPE_PHYSICAL</t>
+  </si>
+  <si>
+    <t>混合</t>
+  </si>
+  <si>
+    <t>生命移除</t>
+  </si>
+  <si>
+    <t>魔法</t>
+  </si>
+  <si>
+    <t>物理</t>
+  </si>
+  <si>
+    <t>纯粹</t>
+  </si>
+  <si>
+    <t>DAMAGE_TYPE_PURE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 6 7 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA_UNIT_TARGET_HERO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA_UNIT_TARGET_BASIC | DOTA_UNIT_TARGET_HERO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA_UNIT_TARGET_FLAG_NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA_UNIT_TARGET_TEAM_ENEMY</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -202,7 +858,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,16 +873,171 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color rgb="FF1C1E21"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color rgb="FF1C1E21"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1C1E21"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1C1E21"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1C1E21"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1C1E21"/>
+      <name val="等线"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FF008080"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF444444"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF444444"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF66FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -234,16 +1045,90 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE3EDF5"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFE3EDF5"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFE3EDF5"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFE3EDF5"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -521,15 +1406,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X3"/>
+  <dimension ref="A1:Y3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30.5" customWidth="1"/>
+    <col min="2" max="2" width="17.75" customWidth="1"/>
+    <col min="3" max="3" width="24.5" customWidth="1"/>
+    <col min="4" max="4" width="17.375" customWidth="1"/>
+    <col min="5" max="5" width="15.75" customWidth="1"/>
+    <col min="6" max="6" width="14.75" customWidth="1"/>
+    <col min="7" max="7" width="12.625" customWidth="1"/>
+    <col min="8" max="8" width="11.875" customWidth="1"/>
+    <col min="18" max="18" width="16.375" customWidth="1"/>
+    <col min="19" max="19" width="35.75" customWidth="1"/>
+    <col min="20" max="20" width="32.875" customWidth="1"/>
+    <col min="21" max="21" width="61.375" customWidth="1"/>
+    <col min="22" max="22" width="51.5" customWidth="1"/>
+    <col min="23" max="23" width="30.875" customWidth="1"/>
+    <col min="24" max="24" width="15.625" customWidth="1"/>
+    <col min="25" max="25" width="35" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -543,40 +1446,43 @@
         <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
         <v>34</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>36</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>37</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>38</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>39</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>40</v>
       </c>
-      <c r="V1" t="s">
-        <v>41</v>
-      </c>
-      <c r="W1" t="s">
-        <v>42</v>
-      </c>
       <c r="X1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -587,46 +1493,46 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="K2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="N2" t="s">
         <v>12</v>
       </c>
       <c r="O2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" t="s">
         <v>15</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>16</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>17</v>
       </c>
       <c r="R2" t="s">
         <v>6</v>
@@ -646,36 +1552,645 @@
       <c r="W2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X2" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E3" t="s">
         <v>28</v>
       </c>
-      <c r="B3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>29</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>30</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
       </c>
       <c r="O3">
         <v>2</v>
       </c>
       <c r="P3" t="s">
-        <v>32</v>
+        <v>197</v>
       </c>
       <c r="Q3" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="T3" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="U3" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="V3" t="s">
+        <v>55</v>
+      </c>
+      <c r="W3" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="X3">
+        <v>400</v>
+      </c>
+      <c r="Y3" s="35" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D6D3CD69-7C63-4A62-AE83-B11BE8BF64E6}">
+          <x14:formula1>
+            <xm:f>参数指引!$A$2:$A$25</xm:f>
+          </x14:formula1>
+          <xm:sqref>S40:S98</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A725F4CD-D6E1-4B52-8FD1-5F4CFD166CA2}">
+          <x14:formula1>
+            <xm:f>参数指引!$C$9:$C$13</xm:f>
+          </x14:formula1>
+          <xm:sqref>T40:T98</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F3A0A573-DCE6-4DA0-8613-623E1985EAA3}">
+          <x14:formula1>
+            <xm:f>参数指引!$C$15:$C$25</xm:f>
+          </x14:formula1>
+          <xm:sqref>U40:U98</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{98DBE808-8807-4BF8-AAC5-8C48B4274743}">
+          <x14:formula1>
+            <xm:f>参数指引!$E$3:$E$23</xm:f>
+          </x14:formula1>
+          <xm:sqref>V40:V98</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D777AD57-CC56-4B03-91F3-0A1C0E2AFC6F}">
+          <x14:formula1>
+            <xm:f>参数指引!$E$25:$F$25</xm:f>
+          </x14:formula1>
+          <xm:sqref>W40:W98</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{969DED3B-0CEF-4F10-8AA0-1518A558A0AA}">
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="53.25" customWidth="1"/>
+    <col min="2" max="2" width="41.5" customWidth="1"/>
+    <col min="3" max="3" width="60.5" customWidth="1"/>
+    <col min="4" max="4" width="71" customWidth="1"/>
+    <col min="5" max="5" width="78.125" customWidth="1"/>
+    <col min="6" max="6" width="97" customWidth="1"/>
+    <col min="7" max="7" width="43.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="H5" s="34" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="H6" s="34" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14" s="24"/>
+      <c r="E14" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="D18" s="25"/>
+      <c r="E18" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="E24" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="F24" s="31"/>
+    </row>
+    <row r="25" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="F25" s="31" t="s">
+        <v>179</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>